--- a/PivotHesaplama_140825.xlsx
+++ b/PivotHesaplama_140825.xlsx
@@ -11,15 +11,15 @@
     <sheet name="Kesisim_Sinyalleri" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Kesisim_Sinyalleri'!$A$1:$M$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pivot_Raporu'!$A$1:$AO$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Kesisim_Sinyalleri'!$A$1:$M$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Pivot_Raporu'!$A$1:$AO$6</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="54">
   <si>
     <t>Tarih</t>
   </si>
@@ -153,6 +153,12 @@
     <t>ACSEL</t>
   </si>
   <si>
+    <t>ADEL</t>
+  </si>
+  <si>
+    <t>ADESE</t>
+  </si>
+  <si>
     <t>14/08/25</t>
   </si>
   <si>
@@ -171,7 +177,10 @@
     <t>G_PP,G_R1,G_R2</t>
   </si>
   <si>
-    <t>G_PP,H_PP,G_S1</t>
+    <t>G_PP,H_PP,G_S1,H_S1</t>
+  </si>
+  <si>
+    <t>G_S1,A_R2</t>
   </si>
 </sst>
 </file>
@@ -565,7 +574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,7 +740,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2">
         <v>11.15</v>
@@ -743,10 +752,10 @@
         <v>11.06</v>
       </c>
       <c r="F2" s="2">
-        <v>12.2</v>
+        <v>12.26</v>
       </c>
       <c r="G2" s="2">
-        <v>32938592</v>
+        <v>50415671</v>
       </c>
       <c r="H2" s="2">
         <v>11.21</v>
@@ -770,7 +779,7 @@
         <v>-61.25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="2">
         <v>11.38</v>
@@ -806,7 +815,7 @@
         <v>-16.55</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB2" s="2">
         <v>10.97</v>
@@ -830,7 +839,7 @@
         <v>-11.69</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ2" s="2">
         <v>7.07</v>
@@ -856,7 +865,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>31.7</v>
@@ -865,13 +874,13 @@
         <v>31.94</v>
       </c>
       <c r="E3" s="3">
-        <v>30.86</v>
+        <v>30.5</v>
       </c>
       <c r="F3" s="3">
-        <v>30.92</v>
+        <v>30.76</v>
       </c>
       <c r="G3" s="3">
-        <v>1495138</v>
+        <v>3596320</v>
       </c>
       <c r="H3" s="3">
         <v>32.26</v>
@@ -895,7 +904,7 @@
         <v>109.4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3">
         <v>33.38</v>
@@ -931,7 +940,7 @@
         <v>-32.14</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB3" s="3">
         <v>34.58</v>
@@ -955,7 +964,7 @@
         <v>22.11</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AJ3" s="3">
         <v>56.13</v>
@@ -973,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="AO3" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:41">
@@ -981,7 +990,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>111.7</v>
@@ -993,10 +1002,10 @@
         <v>110.5</v>
       </c>
       <c r="F4" s="2">
-        <v>111.3</v>
+        <v>111.5</v>
       </c>
       <c r="G4" s="2">
-        <v>38568</v>
+        <v>85500</v>
       </c>
       <c r="H4" s="2">
         <v>112.65</v>
@@ -1020,7 +1029,7 @@
         <v>189.61</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="P4" s="2">
         <v>115.5</v>
@@ -1056,7 +1065,7 @@
         <v>11.83</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AB4" s="2">
         <v>124.95</v>
@@ -1080,7 +1089,7 @@
         <v>144.79</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ4" s="2">
         <v>161.8</v>
@@ -1101,9 +1110,259 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:41">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36.54</v>
+      </c>
+      <c r="D5" s="3">
+        <v>37.04</v>
+      </c>
+      <c r="E5" s="3">
+        <v>35.12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>35.16</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2347371</v>
+      </c>
+      <c r="H5" s="3">
+        <v>36.79</v>
+      </c>
+      <c r="I5" s="3">
+        <v>37.21</v>
+      </c>
+      <c r="J5" s="3">
+        <v>30.74</v>
+      </c>
+      <c r="K5" s="3">
+        <v>42.52</v>
+      </c>
+      <c r="L5" s="3">
+        <v>36.54</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="N5" s="3">
+        <v>22.48</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="3">
+        <v>37.42</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>35.66</v>
+      </c>
+      <c r="R5" s="3">
+        <v>38.55</v>
+      </c>
+      <c r="S5" s="3">
+        <v>35.03</v>
+      </c>
+      <c r="T5" s="3">
+        <v>42.9</v>
+      </c>
+      <c r="U5" s="3">
+        <v>32.66</v>
+      </c>
+      <c r="V5" s="3">
+        <v>47.45</v>
+      </c>
+      <c r="W5" s="3">
+        <v>26.97</v>
+      </c>
+      <c r="X5" s="3">
+        <v>37.78</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>19.94</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>529.51</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>34.48</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>28.84</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>36.38</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>25.1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>31.66</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>-5.35</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>56.56</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>88.68000000000001</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>-3.64</v>
+      </c>
+      <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15.87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>16.05</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15.62</v>
+      </c>
+      <c r="F6" s="2">
+        <v>15.93</v>
+      </c>
+      <c r="G6" s="2">
+        <v>36723330</v>
+      </c>
+      <c r="H6" s="2">
+        <v>15.93</v>
+      </c>
+      <c r="I6" s="2">
+        <v>15.69</v>
+      </c>
+      <c r="J6" s="2">
+        <v>13.74</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>15.87</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-0.38</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-25.04</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="2">
+        <v>16.08</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>15.65</v>
+      </c>
+      <c r="R6" s="2">
+        <v>16.36</v>
+      </c>
+      <c r="S6" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="T6" s="2">
+        <v>16.33</v>
+      </c>
+      <c r="U6" s="2">
+        <v>15.4</v>
+      </c>
+      <c r="V6" s="2">
+        <v>16.62</v>
+      </c>
+      <c r="W6" s="2">
+        <v>14.76</v>
+      </c>
+      <c r="X6" s="2">
+        <v>15.87</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>2.45</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>-48.43</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>18.65</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>11.95</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>20.43</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>7.04</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>15.3</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>63.46</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>184.88</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>2.88</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>1.48</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0.92</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AO4"/>
-  <conditionalFormatting sqref="AB2:AB4">
+  <autoFilter ref="A1:AO6"/>
+  <conditionalFormatting sqref="AB2:AB6">
     <cfRule type="expression" dxfId="0" priority="37">
       <formula>$F2&gt;$AB2</formula>
     </cfRule>
@@ -1114,7 +1373,7 @@
       <formula>$F2=$AB2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC2:AC4">
+  <conditionalFormatting sqref="AC2:AC6">
     <cfRule type="expression" dxfId="0" priority="40">
       <formula>$F2&gt;$AC2</formula>
     </cfRule>
@@ -1125,7 +1384,7 @@
       <formula>$F2=$AC2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD2:AD4">
+  <conditionalFormatting sqref="AD2:AD6">
     <cfRule type="expression" dxfId="0" priority="43">
       <formula>$F2&gt;$AD2</formula>
     </cfRule>
@@ -1136,7 +1395,7 @@
       <formula>$F2=$AD2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE2:AE4">
+  <conditionalFormatting sqref="AE2:AE6">
     <cfRule type="expression" dxfId="0" priority="46">
       <formula>$F2&gt;$AE2</formula>
     </cfRule>
@@ -1147,7 +1406,7 @@
       <formula>$F2=$AE2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ2:AJ4">
+  <conditionalFormatting sqref="AJ2:AJ6">
     <cfRule type="expression" dxfId="0" priority="49">
       <formula>$F2&gt;$AJ2</formula>
     </cfRule>
@@ -1158,7 +1417,7 @@
       <formula>$F2=$AJ2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AK4">
+  <conditionalFormatting sqref="AK2:AK6">
     <cfRule type="expression" dxfId="0" priority="52">
       <formula>$F2&gt;$AK2</formula>
     </cfRule>
@@ -1169,7 +1428,7 @@
       <formula>$F2=$AK2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL2:AL4">
+  <conditionalFormatting sqref="AL2:AL6">
     <cfRule type="expression" dxfId="0" priority="55">
       <formula>$F2&gt;$AL2</formula>
     </cfRule>
@@ -1180,7 +1439,7 @@
       <formula>$F2=$AL2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM2:AM4">
+  <conditionalFormatting sqref="AM2:AM6">
     <cfRule type="expression" dxfId="0" priority="58">
       <formula>$F2&gt;$AM2</formula>
     </cfRule>
@@ -1191,7 +1450,7 @@
       <formula>$F2=$AM2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H6">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$F2&gt;$H2</formula>
     </cfRule>
@@ -1202,7 +1461,7 @@
       <formula>$F2=$H2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I6">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>$F2&gt;$I2</formula>
     </cfRule>
@@ -1213,7 +1472,7 @@
       <formula>$F2=$I2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J4">
+  <conditionalFormatting sqref="J2:J6">
     <cfRule type="expression" dxfId="0" priority="7">
       <formula>$F2&gt;$J2</formula>
     </cfRule>
@@ -1224,7 +1483,7 @@
       <formula>$F2=$J2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K4">
+  <conditionalFormatting sqref="K2:K6">
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F2&gt;$K2</formula>
     </cfRule>
@@ -1235,7 +1494,7 @@
       <formula>$F2=$K2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:P4">
+  <conditionalFormatting sqref="P2:P6">
     <cfRule type="expression" dxfId="0" priority="13">
       <formula>$F2&gt;$P2</formula>
     </cfRule>
@@ -1246,7 +1505,7 @@
       <formula>$F2=$P2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q2:Q4">
+  <conditionalFormatting sqref="Q2:Q6">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>$F2&gt;$Q2</formula>
     </cfRule>
@@ -1257,7 +1516,7 @@
       <formula>$F2=$Q2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R2:R4">
+  <conditionalFormatting sqref="R2:R6">
     <cfRule type="expression" dxfId="0" priority="19">
       <formula>$F2&gt;$R2</formula>
     </cfRule>
@@ -1268,7 +1527,7 @@
       <formula>$F2=$R2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S2:S4">
+  <conditionalFormatting sqref="S2:S6">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>$F2&gt;$S2</formula>
     </cfRule>
@@ -1279,7 +1538,7 @@
       <formula>$F2=$S2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T4">
+  <conditionalFormatting sqref="T2:T6">
     <cfRule type="expression" dxfId="0" priority="25">
       <formula>$F2&gt;$T2</formula>
     </cfRule>
@@ -1290,7 +1549,7 @@
       <formula>$F2=$T2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2:U4">
+  <conditionalFormatting sqref="U2:U6">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>$F2&gt;$U2</formula>
     </cfRule>
@@ -1301,7 +1560,7 @@
       <formula>$F2=$U2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V4">
+  <conditionalFormatting sqref="V2:V6">
     <cfRule type="expression" dxfId="0" priority="31">
       <formula>$F2&gt;$V2</formula>
     </cfRule>
@@ -1312,7 +1571,7 @@
       <formula>$F2=$V2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W4">
+  <conditionalFormatting sqref="W2:W6">
     <cfRule type="expression" dxfId="0" priority="34">
       <formula>$F2&gt;$W2</formula>
     </cfRule>
@@ -1329,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1337,7 +1596,8 @@
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
@@ -1357,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>11</v>
@@ -1395,10 +1655,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1408,7 +1668,7 @@
         <v>-61.25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2">
         <v>7.23</v>
@@ -1417,7 +1677,7 @@
         <v>-16.55</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2">
         <v>11.27</v>
@@ -1426,7 +1686,7 @@
         <v>-11.69</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1434,11 +1694,11 @@
         <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="3">
         <v>3.25</v>
@@ -1447,7 +1707,7 @@
         <v>109.4</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3">
         <v>2.79</v>
@@ -1456,7 +1716,7 @@
         <v>-32.14</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K3" s="3">
         <v>17.61</v>
@@ -1465,7 +1725,7 @@
         <v>22.11</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1473,7 +1733,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
@@ -1486,7 +1746,7 @@
         <v>189.61</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2">
         <v>2.79</v>
@@ -1495,7 +1755,7 @@
         <v>11.83</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K4" s="2">
         <v>10.98</v>
@@ -1504,11 +1764,87 @@
         <v>144.79</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.11</v>
+      </c>
+      <c r="F5" s="3">
+        <v>22.48</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3">
+        <v>19.94</v>
+      </c>
+      <c r="I5" s="3">
+        <v>529.51</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="L5" s="3">
+        <v>-5.35</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2">
+        <v>-0.38</v>
+      </c>
+      <c r="F6" s="2">
+        <v>-25.04</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.45</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-48.43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="2">
+        <v>63.46</v>
+      </c>
+      <c r="L6" s="2">
+        <v>184.88</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M4"/>
+  <autoFilter ref="A1:M6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>